--- a/наивный.xlsx
+++ b/наивный.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\EPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA3D701-127D-4734-B368-B04D2DC1DC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5815ECBF-24DF-47FD-81F0-1E5209218FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="16815" windowHeight="15585" xr2:uid="{5F634D0E-61C5-4DC8-BC9A-9F948D647CAB}"/>
+    <workbookView xWindow="1560" yWindow="1470" windowWidth="21510" windowHeight="11295" xr2:uid="{5F634D0E-61C5-4DC8-BC9A-9F948D647CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>#</t>
   </si>
@@ -242,13 +242,25 @@
     <t>Система должна обеспечивать возможность делиться созданными клипами с другими пользователями.</t>
   </si>
   <si>
-    <t>ИТОГО</t>
-  </si>
-  <si>
     <t>Создание клипа</t>
   </si>
   <si>
     <t>Возможность поделиться клипом</t>
+  </si>
+  <si>
+    <t>ИТОГО (человек/час)</t>
+  </si>
+  <si>
+    <t>ИТОГО (человек/рабочий день)</t>
+  </si>
+  <si>
+    <t>ИТОГО (человек/месяц)</t>
+  </si>
+  <si>
+    <t>Дополнительная разработка красивого UI для всех функций</t>
+  </si>
+  <si>
+    <t>Тестирование</t>
   </si>
 </sst>
 </file>
@@ -303,12 +315,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -326,10 +335,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -666,66 +684,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119FA337-8058-44FE-82E6-17E01D258BB0}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="2">
         <f>SUM(D3:D6)</f>
-        <v>255</v>
+        <v>1300</v>
       </c>
       <c r="E2" s="2">
         <f>SUM(E3:E6)</f>
-        <v>650</v>
+        <v>2600</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F3:F6)</f>
-        <v>412</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -735,17 +754,17 @@
         <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1.2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -755,17 +774,17 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E4" s="1">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="1">
-        <v>150</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1.3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -775,17 +794,17 @@
         <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="E5" s="1">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F5" s="1">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1.4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -795,38 +814,38 @@
         <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>70</v>
+        <v>560</v>
       </c>
       <c r="E6" s="1">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="F6" s="1">
-        <v>120</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="2">
         <f>D8+D9</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2">
         <f>E8+E9</f>
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="F7" s="2">
         <f>F8+F9</f>
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>2.1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -836,17 +855,17 @@
         <v>18</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -856,23 +875,23 @@
         <v>19</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="2">
         <f>SUM(D11:D12)</f>
         <v>35</v>
@@ -887,7 +906,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>3.1</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -907,7 +926,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>3.2</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -927,28 +946,28 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="2">
         <f>SUM(D14:D16)</f>
-        <v>130</v>
+        <v>520</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ref="E13:F13" si="1">SUM(E14:E16)</f>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -958,17 +977,17 @@
         <v>29</v>
       </c>
       <c r="D14" s="1">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="E14" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F14" s="1">
-        <v>80</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -978,17 +997,17 @@
         <v>32</v>
       </c>
       <c r="D15" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F15" s="1">
-        <v>70</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -998,38 +1017,38 @@
         <v>34</v>
       </c>
       <c r="D16" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F16" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="2">
         <f>SUM(D18:D19)</f>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ref="E17:F17" si="2">SUM(E18:E19)</f>
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1039,17 +1058,17 @@
         <v>40</v>
       </c>
       <c r="D18" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F18" s="1">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1059,38 +1078,38 @@
         <v>46</v>
       </c>
       <c r="D19" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="2">
         <f>SUM(D21:D23)</f>
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ref="E20:F20" si="3">SUM(E21:E23)</f>
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1100,17 +1119,17 @@
         <v>48</v>
       </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1120,17 +1139,17 @@
         <v>51</v>
       </c>
       <c r="D22" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1140,38 +1159,38 @@
         <v>53</v>
       </c>
       <c r="D23" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E23" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="2">
         <f>SUM(D25:D26)</f>
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="E24" s="2">
         <f>SUM(E25:E26)</f>
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="F24" s="2">
         <f>SUM(F25:F26)</f>
-        <v>48</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1181,17 +1200,17 @@
         <v>61</v>
       </c>
       <c r="D25" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E25" s="1">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F25" s="1">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1201,125 +1220,194 @@
         <v>62</v>
       </c>
       <c r="D26" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E26" s="1">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F26" s="1">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>8</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="2">
         <f>SUM(D28:D29)</f>
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" ref="E27:F27" si="4">SUM(E28:E29)</f>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="1">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="E28" s="1">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="F28" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="1">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E29" s="1">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="F29" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9">
-        <f>D2+D7+D10+D13+D17+D20+D24+D27</f>
-        <v>593</v>
-      </c>
-      <c r="E30" s="9">
-        <f t="shared" ref="E30:F30" si="5">E2+E7+E10+E13+E17+E20+E24+E27</f>
-        <v>1249</v>
-      </c>
-      <c r="F30" s="9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="11">
+        <v>3000</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11">
+        <v>500</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1400</v>
+      </c>
+      <c r="F31" s="11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9">
+        <f>D2+D7+D10+D13+D17+D20+D24+D27+D30+D31</f>
+        <v>5047</v>
+      </c>
+      <c r="E32" s="9">
+        <f>E2+E7+E10+E13+E17+E20+E24+E27+E30+E31</f>
+        <v>9216</v>
+      </c>
+      <c r="F32" s="9">
+        <f>F2+F7+F10+F13+F17+F20+F24+F27+F30+F31</f>
+        <v>6208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9">
+        <f>D32/8</f>
+        <v>630.875</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" ref="E33:F33" si="5">E32/8</f>
+        <v>1152</v>
+      </c>
+      <c r="F33" s="9">
         <f t="shared" si="5"/>
-        <v>855</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9">
+        <f>D33/20.5</f>
+        <v>30.774390243902438</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" ref="E34:F34" si="6">E33/20.5</f>
+        <v>56.195121951219512</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="6"/>
+        <v>37.853658536585364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B10:C10"/>
